--- a/biology/Zoologie/Âne_sauvage_de_Somalie/Âne_sauvage_de_Somalie.xlsx
+++ b/biology/Zoologie/Âne_sauvage_de_Somalie/Âne_sauvage_de_Somalie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%82ne_sauvage_de_Somalie</t>
+          <t>Âne_sauvage_de_Somalie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Equus asinus somalicus
 L'Âne sauvage de Somalie (Equus asinus somalicus) est une sous-espèce de l'Âne sauvage d'Afrique. Il se trouve principalement en Somalie, au sud de l'Érythrée, et dans la région d'Afar en Éthiopie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%82ne_sauvage_de_Somalie</t>
+          <t>Âne_sauvage_de_Somalie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon les sources, l'auteur de cette sous-espèce est :
-soit Philip Lutley Sclater en 1885[2] sous le taxon Equus asinus somalicus ;
-soit Theophil Johann Noack (d) en 1884[3] sous le taxon Equus africanus somaliensis.</t>
+soit Philip Lutley Sclater en 1885 sous le taxon Equus asinus somalicus ;
+soit Theophil Johann Noack (d) en 1884 sous le taxon Equus africanus somaliensis.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%82ne_sauvage_de_Somalie</t>
+          <t>Âne_sauvage_de_Somalie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Âne sauvage de Somalie présente des zébrures sur les membres, ainsi qu'une raie de mulet, caractéristiques des espèces primitives[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Âne sauvage de Somalie présente des zébrures sur les membres, ainsi qu'une raie de mulet, caractéristiques des espèces primitives.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%82ne_sauvage_de_Somalie</t>
+          <t>Âne_sauvage_de_Somalie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement limité à la corne de l'Afrique : Érythrée, Éthiopie et Somalie.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%82ne_sauvage_de_Somalie</t>
+          <t>Âne_sauvage_de_Somalie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,17 +624,54 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce est considérée comme en danger critique d'extinction par l'UICN[5]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce est considérée comme en danger critique d'extinction par l'UICN. 
 Il resterait moins de mille ânes sauvages de Somalie dans le monde. 
 Une centaine de spécimens vivent en Somalie, Érythrée et en Éthiopie.
-Populations captives
-En 2011, deux cents individus environ vivaient en captivité dans le monde, dans trente-quatre zoos. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Âne_sauvage_de_Somalie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%82ne_sauvage_de_Somalie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Menaces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Populations captives</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, deux cents individus environ vivaient en captivité dans le monde, dans trente-quatre zoos. 
 Il existe des plans de reproduction de l'âne sauvage en captivité, visant à assurer sa survie en cas de disparition dans la nature.
-« En 1999, la population captive de l'âne sauvage somalien (Equus africanus somaliensis) rapportée à l' International Species Information System (ISIS) totalisait 94 individus[6] ». Ce sont les descendants de cinq animaux capturés en 1970 en Somalie et envoyés au zoo de Bâle, en Suisse, et de douze animaux capturés en 1972 en Éthiopie et envoyés dans la Réserve de Hai Bar, en Israël. 
-Depuis 1987, la Réserve Africaine de Sigean accueille quelques animaux, et des naissances ont régulièrement lieu, dont une le 30 juin 2010[7]. En 2009, seules treize naissances d’Equus africanus somalicus ont été enregistrées dans les parcs zoologiques du monde entier, souligne la Réserve Africaine. Il ne resterait qu'une centaine d'ânes de Somalie à l'état sauvage. 
-Au 31 décembre 2010, la population d’Equus africanus somalicus était composée de 156 individus ; 68 mâles et 88 femelles, accueillis dans 25 parcs. Dans le monde, ce sont près de deux cents ânes de Somalie présents dans une trentaine de zoos[8]. 
+« En 1999, la population captive de l'âne sauvage somalien (Equus africanus somaliensis) rapportée à l' International Species Information System (ISIS) totalisait 94 individus ». Ce sont les descendants de cinq animaux capturés en 1970 en Somalie et envoyés au zoo de Bâle, en Suisse, et de douze animaux capturés en 1972 en Éthiopie et envoyés dans la Réserve de Hai Bar, en Israël. 
+Depuis 1987, la Réserve Africaine de Sigean accueille quelques animaux, et des naissances ont régulièrement lieu, dont une le 30 juin 2010. En 2009, seules treize naissances d’Equus africanus somalicus ont été enregistrées dans les parcs zoologiques du monde entier, souligne la Réserve Africaine. Il ne resterait qu'une centaine d'ânes de Somalie à l'état sauvage. 
+Au 31 décembre 2010, la population d’Equus africanus somalicus était composée de 156 individus ; 68 mâles et 88 femelles, accueillis dans 25 parcs. Dans le monde, ce sont près de deux cents ânes de Somalie présents dans une trentaine de zoos. 
 </t>
         </is>
       </c>
